--- a/data/nl_orgs_dashboard_data.xlsx
+++ b/data/nl_orgs_dashboard_data.xlsx
@@ -7178,7 +7178,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7186,7 +7186,11 @@
           <t>https://repository.ubn.ru.nl/oai/openaire</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>mets, oai_dc</t>
+        </is>
+      </c>
       <c r="K76" t="n">
         <v>241017</v>
       </c>
@@ -19283,7 +19287,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -19291,11 +19295,7 @@
           <t>http://nvl006.nivel.nl/oai/oai.ashx</t>
         </is>
       </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>oai_dc</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
         <v>11318</v>
       </c>
